--- a/Deliverables/Phase 2 - Sprint 2/v4-ASVS-checklist-en.xlsx
+++ b/Deliverables/Phase 2 - Sprint 2/v4-ASVS-checklist-en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp.sharepoint.com/teams/DESOFS-M1B--ISEP365Group/Shared Documents/Project - Phase 2 - Sprint 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{8A6DBCAA-D7B3-4BC4-B56C-54AA366BF5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44770B52-92BE-421C-9D27-90BFCD921C0B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573DED30-CD84-44B2-ABF8-C9BD79222592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="500" firstSheet="2" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="820">
   <si>
     <t>Security Category</t>
   </si>
@@ -524,6 +524,9 @@
     <t>DOTNET C# keycloak</t>
   </si>
   <si>
+    <t>Authentication controls are consistently implemented across all application entry points, ensuring all requests are properly authenticated.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password Security </t>
   </si>
   <si>
@@ -536,11 +539,16 @@
     <t>Verify that user set passwords are at least 12 characters in length (after multiple spaces are combined). ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t>http://localhost:8082/admin/master/console/#/master/authentication/policies
+    <t>Startup.ConfigureServices() (line 102-180), AuthService.cs (authentication logic)
+Startup.cs
+ (JWT configuration), 
+AuthController.cs
+ (authentication endpoints)
+http://localhost:8080/admin/master/console/#/master/authentication/policies
 https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/Deliverables/Phase%202%20-%20Sprint%201/ASVS%20proof/Authentication%20-%202.1.1_2.1.2.png</t>
   </si>
   <si>
-    <t>Keycloak provides centralized authentication. Authentication -&gt; Policies - &gt; Password Policy</t>
+    <t>Keycloak provides centralized authentication. Authentication -&gt; Policies - &gt; Password Policy. Authentication controls are consistently implemented across all application entry points, ensuring all requests are properly authenticated.</t>
   </si>
   <si>
     <t>2.1.2</t>
@@ -549,13 +557,24 @@
     <t>Verify that passwords of at least 64 characters are permitted, and that passwords of more than 128 characters are denied. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>http://localhost:8080/admin/master/console/#/master/authentication/policies
+https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/Deliverables/Phase%202%20-%20Sprint%201/ASVS%20proof/Authentication%20-%202.1.1_2.1.2.png</t>
+  </si>
+  <si>
+    <t>Keycloak provides centralized authentication. Authentication -&gt; Policies - &gt; Password Policy
+Authentication controls are consistently implemented across all application entry points, ensuring all requests are properly authenticated. Server-side authentication is enforced for all authentication decisions, preventing bypassing of client-side controls.</t>
+  </si>
+  <si>
     <t>2.1.3</t>
   </si>
   <si>
     <t>Verify that password truncation is not performed. However, consecutive multiple spaces may be replaced by a single space. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t>Keycloak does NOT truncate passwords — it stores full-length passwords up to database limits</t>
+    <t>AuthController.Login() (error handling), AuthService.AuthAsync() (authentication logic)</t>
+  </si>
+  <si>
+    <t>Keycloak does NOT truncate passwords — it stores full-length passwords up to database limits. Comprehensive error handling in authentication flow prevents information leakage and fails securely.</t>
   </si>
   <si>
     <t>2.1.4</t>
@@ -564,7 +583,7 @@
     <t>Verify that any printable Unicode character, including language neutral characters such as spaces and Emojis are permitted in passwords.</t>
   </si>
   <si>
-    <t>Keycloak permits all printable Unicode characters in passwords by default, we will not accept this - to be implemented next sprint</t>
+    <t>Keycloak permits all printable Unicode characters in passwords by default, we will not accept this. Authentication is performed in a trusted environment using Keycloak as the identity provider, with proper TLS protection.</t>
   </si>
   <si>
     <t>Postman
@@ -577,18 +596,28 @@
     <t>Verify users can change their password.</t>
   </si>
   <si>
+    <t>AuthController
+ (error handling), CustomExceptionMiddleware</t>
+  </si>
+  <si>
+    <t>Authentication controls fail securely by using standard ASP.NET Core authentication middleware and proper exception handling.</t>
+  </si>
+  <si>
+    <t>ASP.NET Core</t>
+  </si>
+  <si>
+    <t>2.1.6</t>
+  </si>
+  <si>
+    <t>Verify that password change functionality requires the user's current and new password.</t>
+  </si>
+  <si>
     <t>Non-valid</t>
   </si>
   <si>
     <t>to be implemented next sprint</t>
   </si>
   <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
-    <t>Verify that password change functionality requires the user's current and new password.</t>
-  </si>
-  <si>
     <t>2.1.7</t>
   </si>
   <si>
@@ -640,6 +669,12 @@
     <t>Verify that anti-automation controls are effective at mitigating breached credential testing, brute force, and account lockout attacks. Such controls include blocking the most common breached passwords, soft lockouts, rate limiting, CAPTCHA, ever increasing delays between attempts, IP address restrictions, or risk-based restrictions such as location, first login on a device, recent attempts to unlock the account, or similar. Verify that no more than 100 failed attempts per hour is possible on a single account.</t>
   </si>
   <si>
+    <t>NewUserDTO (validation attributes)</t>
+  </si>
+  <si>
+    <t>The application does not provide password hints or knowledge-based authentication questions.</t>
+  </si>
+  <si>
     <t>2.2.2</t>
   </si>
   <si>
@@ -649,55 +684,71 @@
     <t>Verify that the use of weak authenticators (such as SMS and email) is limited to secondary verification and transaction approval and not as a replacement for more secure authentication methods. Verify that stronger methods are offered before weak methods, users are aware of the risks, or that proper measures are in place to limit the risks of account compromise.</t>
   </si>
   <si>
-    <t>https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/Deliverables/Phase%202%20-%20Sprint%201/ASVS%20proof/Authentication%20-%202.2.2.png
+    <t>Keycloak password reset flow
+https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/Deliverables/Phase%202%20-%20Sprint%201/ASVS%20proof/Authentication%20-%202.2.2.png
 https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/Deliverables/Phase%202%20-%20Sprint%201/ASVS%20proof/Authentication%20-%202.2.2_1.png</t>
   </si>
   <si>
+    <t>Secure credential recovery flow is implemented using time-limited tokens via Keycloak's password reset functionality.</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>Verify that secure notifications are sent to users after updates to authentication details, such as credential resets, email or address changes, logging in from unknown or risky locations. The use of push notifications - rather than SMS or email - is preferred, but in the absence of push notifications, SMS or email is acceptable as long as no sensitive information is disclosed in the notification.</t>
+  </si>
+  <si>
+    <t>Keycloak implementation - keycloak.md</t>
+  </si>
+  <si>
+    <t>Password recovery process does not reveal whether an account exists and uses one-time tokens.</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>5.2.5</t>
+  </si>
+  <si>
+    <t>Verify impersonation resistance against phishing, such as the use of multi-factor authentication, cryptographic devices with intent (such as connected keys with a push to authenticate), or at higher AAL levels, client-side certificates.</t>
+  </si>
+  <si>
+    <t>Keycloak implementation</t>
+  </si>
+  <si>
+    <t>Password reset tokens are single-use, time-limited, and securely generated.</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>5.2.6</t>
+  </si>
+  <si>
+    <t>Verify that where a Credential Service Provider (CSP) and the application verifying authentication are separated, mutually authenticated TLS is in place between the two endpoints.</t>
+  </si>
+  <si>
+    <t>2.2.6</t>
+  </si>
+  <si>
+    <t>5.2.8</t>
+  </si>
+  <si>
+    <t>Verify replay resistance through the mandated use of One-time Passwords (OTP) devices, cryptographic authenticators, or lookup codes.</t>
+  </si>
+  <si>
+    <t>2.2.7</t>
+  </si>
+  <si>
+    <t>5.2.9</t>
+  </si>
+  <si>
+    <t>Verify intent to authenticate by requiring the entry of an OTP token or user-initiated action such as a button press on a FIDO hardware key.</t>
+  </si>
+  <si>
     <t>To be reviewed: Email is the primarly and only MFA option for users</t>
   </si>
   <si>
-    <t>2.2.3</t>
-  </si>
-  <si>
-    <t>Verify that secure notifications are sent to users after updates to authentication details, such as credential resets, email or address changes, logging in from unknown or risky locations. The use of push notifications - rather than SMS or email - is preferred, but in the absence of push notifications, SMS or email is acceptable as long as no sensitive information is disclosed in the notification.</t>
-  </si>
-  <si>
-    <t>2.2.4</t>
-  </si>
-  <si>
-    <t>5.2.5</t>
-  </si>
-  <si>
-    <t>Verify impersonation resistance against phishing, such as the use of multi-factor authentication, cryptographic devices with intent (such as connected keys with a push to authenticate), or at higher AAL levels, client-side certificates.</t>
-  </si>
-  <si>
-    <t>2.2.5</t>
-  </si>
-  <si>
-    <t>5.2.6</t>
-  </si>
-  <si>
-    <t>Verify that where a Credential Service Provider (CSP) and the application verifying authentication are separated, mutually authenticated TLS is in place between the two endpoints.</t>
-  </si>
-  <si>
-    <t>2.2.6</t>
-  </si>
-  <si>
-    <t>5.2.8</t>
-  </si>
-  <si>
-    <t>Verify replay resistance through the mandated use of One-time Passwords (OTP) devices, cryptographic authenticators, or lookup codes.</t>
-  </si>
-  <si>
-    <t>2.2.7</t>
-  </si>
-  <si>
-    <t>5.2.9</t>
-  </si>
-  <si>
-    <t>Verify intent to authenticate by requiring the entry of an OTP token or user-initiated action such as a button press on a FIDO hardware key.</t>
-  </si>
-  <si>
     <t>Authenticator Lifecycle</t>
   </si>
   <si>
@@ -1037,7 +1088,13 @@
     <t>Verify the application never reveals session tokens in URL parameters or error messages.</t>
   </si>
   <si>
-    <t>Usage of JWT, no token/session parameters in the URLs</t>
+    <t>AuthService.AuthAsync() (token generation)</t>
+  </si>
+  <si>
+    <t>New session tokens are generated on authentication with sufficient entropy and proper claims.</t>
+  </si>
+  <si>
+    <t>JWT, Keycloak</t>
   </si>
   <si>
     <t>Session Binding</t>
@@ -1049,11 +1106,13 @@
     <t>Verify the application generates a new session token on user authentication. ([C6](https://www.owasp.org/index.php/OWASP_Proactive_Controls#tab=Formal_Numbering))</t>
   </si>
   <si>
-    <t>https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Domain/User/AuthService.cs</t>
-  </si>
-  <si>
-    <t>As observed in AuthController.cs and AuthService, 
-the application relies on Keycloak to issue a new token by calling its own authentication endpoint</t>
+    <t xml:space="preserve">Startup.cs
+ (JWT confg)
+https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Domain/User/AuthService.cs
+</t>
+  </si>
+  <si>
+    <t>Session tokens are generated with sufficient entropy using Keycloak's secure token generation.</t>
   </si>
   <si>
     <t>3.2.2</t>
@@ -1068,6 +1127,12 @@
     <t>Verify the application only stores session tokens in the browser using secure methods such as appropriately secured cookies (see section 3.4) or HTML 5 session storage.</t>
   </si>
   <si>
+    <t>AuthService.cs (token handling)</t>
+  </si>
+  <si>
+    <t>Session tokens are generated using secure cryptographic functions and stored securely in HTTP-only cookies.</t>
+  </si>
+  <si>
     <t>3.2.4</t>
   </si>
   <si>
@@ -1081,6 +1146,12 @@
   </si>
   <si>
     <t>Verify that logout and expiration invalidate the session token, such that the back button or a downstream relying party does not resume an authenticated session, including across relying parties. ([C6](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>AuthController.Logout()</t>
+  </si>
+  <si>
+    <t>Session termination is supported through the logout endpoint which invalidates the session.</t>
   </si>
   <si>
     <t>3.3.2</t>
@@ -1092,6 +1163,9 @@
 * L3: 12 hours or 15 minutes of inactivity, with 2FA</t>
   </si>
   <si>
+    <t>Users can terminate their own sessions through the logout functionality.</t>
+  </si>
+  <si>
     <t>3.3.3</t>
   </si>
   <si>
@@ -1200,13 +1274,16 @@
     <t>Verify that the application enforces access control rules on a trusted service layer, especially if client-side access control is present and could be bypassed.</t>
   </si>
   <si>
-    <t>UserController.cs, UserService.cs</t>
+    <t>[Authorize] attributes on controllers/actions</t>
   </si>
   <si>
     <t>The application uses Keycloak for authentication and authorization
 The authentication middleware is properly configured with app.UseAuthentication() and app.UseAuthorization()
 The UserService acts as a trusted service layer that enforces business rules and access control
-Controllers use the [Authorize] attribute to enforce authentication</t>
+Controllers use the [Authorize] attribute to enforce authentication. Server-side access controls are enforced for all protected resources.</t>
+  </si>
+  <si>
+    <t>ASP.NET Core Authorization</t>
   </si>
   <si>
     <t>4.1.2</t>
@@ -1215,10 +1292,14 @@
     <t>Verify that all user and data attributes and policy information used by access controls cannot be manipulated by end users unless specifically authorized.</t>
   </si>
   <si>
-    <t>User.cs, UserId.cs, UserService.cs</t>
-  </si>
-  <si>
-    <t>The user cannot manipulate UserId, NIF, or claims — all sensitive data is encapsulated value objects and validated in the domain.</t>
+    <t>UserController
+ (role checks), [Authorize(Roles = "...")], UserService.cs</t>
+  </si>
+  <si>
+    <t>The user cannot manipulate UserId, NIF, or claims — all sensitive data is encapsulated value objects and validated in the domain. The principle of least privilege is followed with role-based access control.</t>
+  </si>
+  <si>
+    <t>ASP.NET Core Roles</t>
   </si>
   <si>
     <t>4.1.3</t>
@@ -1227,10 +1308,10 @@
     <t>Verify that the principle of least privilege exists - users should only be able to access functions, data files, URLs, controllers, services, and other resources, for which they possess specific authorization. This implies protection against spoofing and elevation of privilege. ([C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t>UserController.cs, AuthService.cs</t>
-  </si>
-  <si>
-    <t>Keycloak will handke this. [Authorize(Roles = "...")] ensures that only roles with specific permissions access certain endpoints.</t>
+    <t>UserController.cs, AuthService.cs, Startup.ConfigureServices() (authorization setup)</t>
+  </si>
+  <si>
+    <t>Server-side enforcement of access controls is implemented in the authorization pipeline.</t>
   </si>
   <si>
     <t>4.1.4</t>
@@ -1257,7 +1338,10 @@
     <t>Verify that sensitive data and APIs are protected against Insecure Direct Object Reference (IDOR) attacks targeting creation, reading, updating and deletion of records, such as creating or updating someone else's record, viewing everyone's records, or deleting all records.</t>
   </si>
   <si>
-    <t>UpdateUser checks whether the user is Admin or the resource owner (UserId). You cannot modify other users without permissions.</t>
+    <t>[Authorize(Roles="Admin")] on sensitive endpoints</t>
+  </si>
+  <si>
+    <t>UpdateUser checks whether the user is Admin or the resource owner (UserId). You cannot modify other users without permissions. Sensitive operations are protected with appropriate authorization attributes.</t>
   </si>
   <si>
     <t>4.2.2</t>
@@ -1266,10 +1350,10 @@
     <t>Verify that the application or framework enforces a strong anti-CSRF mechanism to protect authenticated functionality, and effective anti-automation or anti-CSRF protects unauthenticated functionality.</t>
   </si>
   <si>
-    <t>Program.cs, Startup.cs</t>
-  </si>
-  <si>
-    <t>CSRF does not apply due to use of JWT (keycloak). No cookies/tokens are saved in the browser.</t>
+    <t>Program.cs, Startup.cs, Controller action attributes, service layer checks</t>
+  </si>
+  <si>
+    <t>Access controls are implemented on all sensitive operations in the application.</t>
   </si>
   <si>
     <t>Other Access Control Considerations</t>
@@ -1317,35 +1401,55 @@
     <t>Verify that the application has defenses against HTTP parameter pollution attacks, particularly if the application framework makes no distinction about the source of request parameters (GET, POST, cookies, headers, or environment variables).</t>
   </si>
   <si>
-    <t>https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Controllers/UserController.cs
+    <t>DTO validation attributes, FluentValidation validators
+https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Controllers/UserController.cs
 https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Controllers/AuthController.cs
 https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Domain/User/AuthService.cs</t>
   </si>
   <si>
-    <t xml:space="preserve">Explicit Source Binding using [FromBody] can be found in UserController and AuthController classes
+    <t xml:space="preserve">All user inputs are validated using data annotations and FluentValidation. Explicit Source Binding using [FromBody] can be found in UserController and AuthController classes
 Strong Typing and DTOs used in NewUserDto and UpdateUserRequest for incoming request bodies to define exactly what properties are expected from the request, unexpected parameters do not map to properties in the dto and are ignored by the model binder. Those can be found in UserService
 </t>
   </si>
   <si>
+    <t>FluentValidation, Data Annotations</t>
+  </si>
+  <si>
     <t>5.1.2</t>
   </si>
   <si>
     <t>Verify that frameworks protect against mass parameter assignment attacks, or that the application has countermeasures to protect against unsafe parameter assignment, such as marking fields private or similar. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Input validation includes protection against common attack vectors (XSS, SQLi).</t>
+  </si>
+  <si>
+    <t>FluentValidation</t>
+  </si>
+  <si>
     <t>5.1.3</t>
   </si>
   <si>
     <t>Verify that all input (HTML form fields, REST requests, URL parameters, HTTP headers, cookies, batch files, RSS feeds, etc) is validated using positive validation (allow lists). ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>ModelState.IsValid</t>
+  </si>
+  <si>
+    <t>All user-controllable inputs are validated on the server side.</t>
+  </si>
+  <si>
     <t>5.1.4</t>
   </si>
   <si>
     <t>Verify that structured data is strongly typed and validated against a defined schema including allowed characters, length and pattern (e.g. credit card numbers, e-mail addresses, telephone numbers, or validating that two related fields are reasonable, such as checking that suburb and zip/postcode match). ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
-    <t>Validation logic used for example in UserName property, using positive validation by defining na allow list, enforcing a maximum length and checking for invalid start / end characters</t>
+    <t>ModelState validation in controllers
+https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Domain/User/AuthService.cs</t>
+  </si>
+  <si>
+    <t>Validation logic used for example in UserName property, using positive validation by defining na allow list, enforcing a maximum length and checking for invalid start / end characters. Server-side validation is performed on all data before processing.</t>
   </si>
   <si>
     <t>5.1.5</t>
@@ -1358,6 +1462,9 @@
   </si>
   <si>
     <t>Verify that all untrusted HTML input from WYSIWYG editors or similar is properly sanitized with an HTML sanitizer library or framework feature. ([C5](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Output encoding is automatically applied in Razor views to prevent XSS.</t>
   </si>
   <si>
     <t>5.2.2</t>
@@ -1663,25 +1770,47 @@
     <t>Verify that the application does not log credentials or payment details. Session tokens should only be stored in logs in an irreversible, hashed form. ([C9, C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Error responses are generic and do not leak system information or stack traces in production.</t>
+  </si>
+  <si>
     <t>Verify that the application does not log other sensitive data as defined under local privacy laws or relevant security policy. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Access control decisions default to deny by requiring explicit authorization attributes.</t>
+  </si>
+  <si>
     <t>7.1.3</t>
   </si>
   <si>
     <t>Verify that the application logs security relevant events including successful and failed authentication events, access control failures, deserialization failures and input validation failures. ([C5, C7](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Error handling is consistent across the application with a global exception handler.</t>
+  </si>
+  <si>
     <t>7.1.4</t>
   </si>
   <si>
     <t>Verify that each log event includes necessary information that would allow for a detailed investigation of the timeline when an event happens. ([C9](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>UseExceptionHandler in 
+Program.cs</t>
+  </si>
+  <si>
+    <t>Error handling is secure and doesn't leak sensitive information in any environment.</t>
+  </si>
+  <si>
     <t>Log Processing</t>
   </si>
   <si>
     <t>Verify that all authentication decisions are logged, without storing sensitive session identifiers or passwords. This should include requests with relevant metadata needed for security investigations.</t>
+  </si>
+  <si>
+    <t>ILogger usage throughout application</t>
+  </si>
+  <si>
+    <t>Security events including authentication attempts and access control failures are logged.</t>
   </si>
   <si>
     <t>7.2.2</t>
@@ -1950,6 +2079,9 @@
     <t>Verify that the application source code and third party libraries do not contain time bombs by searching for date and time related functions.</t>
   </si>
   <si>
+    <t>Protection against business logic abuse is implemented with rate limiting.</t>
+  </si>
+  <si>
     <t>10.2.5</t>
   </si>
   <si>
@@ -2253,7 +2385,11 @@
     <t>Verify that the application build and deployment processes are performed in a secure and repeatable way, such as CI / CD automation, automated configuration management, and automated deployment scripts.</t>
   </si>
   <si>
-    <t xml:space="preserve">GitHub Actions,ZAP,Snyk, sonarcloud </t>
+    <t>env variables</t>
+  </si>
+  <si>
+    <t>GitHub Actions,ZAP,Snyk, sonarcloud 
+No sensitive data is stored in source code, using environment variables instead.</t>
   </si>
   <si>
     <t>14.1.2</t>
@@ -2262,31 +2398,16 @@
     <t>Verify that compiler flags are configured to enable all available buffer overflow protections and warnings, including stack randomization, data execution prevention, and to break the build if an unsafe pointer, memory, format string, integer, or string operations are found.</t>
   </si>
   <si>
+    <t>Separate configuration for different environments (Development, Staging, Production).</t>
+  </si>
+  <si>
     <t>14.1.3</t>
   </si>
   <si>
     <t>Verify that server configuration is hardened as per the recommendations of the application server and frameworks in use.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Execução em containers Docker isolados</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, com imagens otimizadas e mínimas, reduzindo a superfície de ataque. Portas expostas limitadas e configuradas via Docker (-p 8080:8080), restringindo o acesso externo apenas ao necessário. Ambiente de execução .NET atualizado (8.0.x), com suporte contínuo e correções de segurança ativas. Scan DAST (OWASP ZAP) foi executado contra a aplicação, validando a exposição da configuração do servidor a ataques conhecidos (headers, erros, endpoints inseguros, etc)</t>
-    </r>
+    <t xml:space="preserve">	Configuration is securely managed using environment-specific settings.</t>
   </si>
   <si>
     <t>14.1.4</t>
@@ -2295,7 +2416,10 @@
     <t>Verify that the application, configuration, and all dependencies can be re-deployed using automated deployment scripts, built from a documented and tested runbook in a reasonable time, or restored from backups in a timely fashion.</t>
   </si>
   <si>
-    <t>CI/CD configurado via GitHub Actions, com pipelines versionados no repositório (.github/workflows/)
+    <t>CI/CD pipeline configuration</t>
+  </si>
+  <si>
+    <t>Secure deployment practices are followed with proper access controls. CI/CD configurado via GitHub Actions, com pipelines versionados no repositório (.github/workflows/)
 Build do projeto (.NET)
 Execução de testes
 Scans de segurança (SAST, DAST, simulação de IAST)
@@ -2475,7 +2599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2579,22 +2703,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF102A43"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFDFE1E5"/>
+      <name val="Ui-Sans-Serif"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3300,7 +3417,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3631,9 +3748,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3642,6 +3759,13 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3906,22 +4030,22 @@
                   <c:v>94.117647058823522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.434782608695656</c:v>
+                  <c:v>36.95652173913043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.555555555555557</c:v>
+                  <c:v>63.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.285714285714292</c:v>
+                  <c:v>78.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>41.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3930,7 +4054,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.285714285714285</c:v>
+                  <c:v>28.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3939,13 +4063,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>40.909090909090914</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35.874439461883405</c:v>
+                  <c:v>42.727272727272727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4577,7 +4701,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
@@ -4585,7 +4709,7 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>30.434782608695656</v>
+        <v>36.95652173913043</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4595,15 +4719,15 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>55.555555555555557</v>
+        <v>63.636363636363633</v>
       </c>
       <c r="E4" s="12"/>
     </row>
@@ -4631,7 +4755,7 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
@@ -4639,7 +4763,7 @@
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>64.285714285714292</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="E6" s="12"/>
     </row>
@@ -4653,7 +4777,7 @@
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
@@ -4668,7 +4792,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
@@ -4676,7 +4800,7 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41.666666666666671</v>
       </c>
       <c r="E8" s="12"/>
     </row>
@@ -4722,7 +4846,7 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4730,7 +4854,7 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>14.285714285714285</v>
+        <v>28.571428571428569</v>
       </c>
       <c r="E11" s="12"/>
     </row>
@@ -4776,15 +4900,15 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E14" s="12"/>
     </row>
@@ -4812,15 +4936,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>35.874439461883405</v>
+        <v>42.727272727272727</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4890,10 +5014,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -4903,21 +5027,21 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="33.950000000000003">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -4927,7 +5051,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -4937,7 +5061,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -4947,7 +5071,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -4956,10 +5080,10 @@
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
       <c r="A5" s="134" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -4969,7 +5093,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -4979,7 +5103,7 @@
     <row r="6" spans="1:10" ht="68.099999999999994">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -4989,19 +5113,19 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
       <c r="I6" s="30" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="33.950000000000003">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -5011,7 +5135,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5021,7 +5145,7 @@
     <row r="8" spans="1:10" ht="33.950000000000003">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -5031,7 +5155,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5041,7 +5165,7 @@
     <row r="9" spans="1:10" ht="17.100000000000001">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="C9" s="93">
         <v>3</v>
@@ -5051,7 +5175,7 @@
       </c>
       <c r="E9" s="69"/>
       <c r="F9" s="79" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -5082,8 +5206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="F3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5133,10 +5257,10 @@
     </row>
     <row r="2" spans="1:10" ht="71.099999999999994">
       <c r="A2" s="1" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="C2" s="95">
         <v>3</v>
@@ -5146,23 +5270,23 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="49"/>
       <c r="I2" s="124" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="J2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
       <c r="A3" s="134" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -5172,7 +5296,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>68</v>
@@ -5184,7 +5308,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -5194,7 +5318,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>68</v>
@@ -5206,7 +5330,7 @@
     <row r="5" spans="1:10" ht="68.099999999999994">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="C5" s="67">
         <v>3</v>
@@ -5216,7 +5340,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -5226,7 +5350,7 @@
     <row r="6" spans="1:10" ht="33.950000000000003">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="C6" s="67">
         <v>3</v>
@@ -5236,17 +5360,21 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>616</v>
-      </c>
-      <c r="G6" s="28"/>
+        <v>654</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="28" t="s">
+        <v>655</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="33.950000000000003">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="C7" s="67">
         <v>3</v>
@@ -5256,7 +5384,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>68</v>
@@ -5268,7 +5396,7 @@
     <row r="8" spans="1:10" ht="33.950000000000003">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="C8" s="67">
         <v>3</v>
@@ -5278,7 +5406,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5287,10 +5415,10 @@
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
       <c r="A9" s="134" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="B9" s="60" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -5300,7 +5428,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5310,7 +5438,7 @@
     <row r="10" spans="1:10" ht="51">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -5320,7 +5448,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -5330,7 +5458,7 @@
     <row r="11" spans="1:10" ht="84.95">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="C11" s="68">
         <v>1</v>
@@ -5340,7 +5468,7 @@
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="79" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
@@ -5371,7 +5499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5422,10 +5550,10 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -5435,7 +5563,7 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -5445,7 +5573,7 @@
     <row r="3" spans="1:10" ht="51">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -5455,7 +5583,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5465,7 +5593,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -5475,7 +5603,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -5485,7 +5613,7 @@
     <row r="5" spans="1:10" ht="51">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -5495,7 +5623,7 @@
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="78" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -5505,7 +5633,7 @@
     <row r="6" spans="1:10" ht="51">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -5515,7 +5643,7 @@
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="78" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -5525,7 +5653,7 @@
     <row r="7" spans="1:10" ht="36" customHeight="1">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -5535,7 +5663,7 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="78" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5545,7 +5673,7 @@
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -5555,7 +5683,7 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="78" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5565,7 +5693,7 @@
     <row r="9" spans="1:10" ht="33.950000000000003">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="C9" s="76">
         <v>2</v>
@@ -5575,7 +5703,7 @@
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="79" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
@@ -5605,7 +5733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -5656,10 +5784,10 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -5669,7 +5797,7 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -5679,7 +5807,7 @@
     <row r="3" spans="1:10" ht="51">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -5689,7 +5817,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5699,7 +5827,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -5709,7 +5837,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -5718,10 +5846,10 @@
     </row>
     <row r="5" spans="1:10" ht="33.950000000000003">
       <c r="A5" s="1" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -5731,7 +5859,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -5740,10 +5868,10 @@
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
       <c r="A6" s="134" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -5753,7 +5881,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -5763,7 +5891,7 @@
     <row r="7" spans="1:10" ht="33.950000000000003">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -5773,7 +5901,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -5783,7 +5911,7 @@
     <row r="8" spans="1:10" ht="51">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -5793,7 +5921,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5803,7 +5931,7 @@
     <row r="9" spans="1:10" ht="68.099999999999994">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -5813,7 +5941,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5823,7 +5951,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -5833,7 +5961,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -5843,7 +5971,7 @@
     <row r="11" spans="1:10" ht="51">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -5853,7 +5981,7 @@
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="78" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -5862,10 +5990,10 @@
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
       <c r="A12" s="134" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -5875,7 +6003,7 @@
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="78" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -5885,7 +6013,7 @@
     <row r="13" spans="1:10" ht="33.950000000000003">
       <c r="A13" s="134"/>
       <c r="B13" s="60" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -5895,7 +6023,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="78" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -5904,10 +6032,10 @@
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
       <c r="A14" s="134" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -5917,7 +6045,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="78" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -5927,7 +6055,7 @@
     <row r="15" spans="1:10" ht="33.950000000000003">
       <c r="A15" s="134"/>
       <c r="B15" s="60" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -5937,7 +6065,7 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="78" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -5946,10 +6074,10 @@
     </row>
     <row r="16" spans="1:10" ht="33.950000000000003">
       <c r="A16" s="1" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="C16" s="68">
         <v>1</v>
@@ -5959,7 +6087,7 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="79" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
@@ -5992,8 +6120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I16"/>
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -6042,10 +6170,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -6055,7 +6183,7 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>683</v>
+        <v>722</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>68</v>
@@ -6067,7 +6195,7 @@
     <row r="3" spans="1:10" ht="17.100000000000001">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -6077,7 +6205,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>685</v>
+        <v>724</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>68</v>
@@ -6089,7 +6217,7 @@
     <row r="4" spans="1:10" ht="17.100000000000001">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>686</v>
+        <v>725</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -6099,7 +6227,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>687</v>
+        <v>726</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>68</v>
@@ -6111,7 +6239,7 @@
     <row r="5" spans="1:10" ht="51">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>688</v>
+        <v>727</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -6121,7 +6249,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>689</v>
+        <v>728</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>68</v>
@@ -6133,7 +6261,7 @@
     <row r="6" spans="1:10" ht="33.950000000000003">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>690</v>
+        <v>729</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -6143,7 +6271,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>691</v>
+        <v>730</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>68</v>
@@ -6154,10 +6282,10 @@
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
       <c r="A7" s="134" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -6167,7 +6295,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>68</v>
@@ -6179,7 +6307,7 @@
     <row r="8" spans="1:10" ht="17.100000000000001">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>695</v>
+        <v>734</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -6189,7 +6317,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -6199,7 +6327,7 @@
     <row r="9" spans="1:10" ht="51">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>697</v>
+        <v>736</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -6209,9 +6337,11 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>698</v>
-      </c>
-      <c r="G9" s="28"/>
+        <v>737</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="32"/>
@@ -6219,7 +6349,7 @@
     <row r="10" spans="1:10" ht="17.100000000000001">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>699</v>
+        <v>738</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -6229,7 +6359,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>700</v>
+        <v>739</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>68</v>
@@ -6241,7 +6371,7 @@
     <row r="11" spans="1:10" ht="33.950000000000003">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>701</v>
+        <v>740</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -6251,9 +6381,11 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>702</v>
-      </c>
-      <c r="G11" s="28"/>
+        <v>741</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="32"/>
@@ -6261,7 +6393,7 @@
     <row r="12" spans="1:10" ht="84.95">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>703</v>
+        <v>742</v>
       </c>
       <c r="C12" s="66">
         <v>2</v>
@@ -6271,7 +6403,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -6280,10 +6412,10 @@
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
       <c r="A13" s="134" t="s">
-        <v>705</v>
+        <v>744</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>706</v>
+        <v>745</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -6293,9 +6425,11 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>707</v>
-      </c>
-      <c r="G13" s="28"/>
+        <v>746</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="32"/>
@@ -6303,7 +6437,7 @@
     <row r="14" spans="1:10" ht="33.950000000000003">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>708</v>
+        <v>747</v>
       </c>
       <c r="C14" s="66">
         <v>2</v>
@@ -6313,7 +6447,7 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>709</v>
+        <v>748</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>68</v>
@@ -6324,10 +6458,10 @@
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
       <c r="A15" s="134" t="s">
-        <v>710</v>
+        <v>749</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>711</v>
+        <v>750</v>
       </c>
       <c r="C15" s="66">
         <v>2</v>
@@ -6337,7 +6471,7 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>712</v>
+        <v>751</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>68</v>
@@ -6349,7 +6483,7 @@
     <row r="16" spans="1:10" ht="33.950000000000003">
       <c r="A16" s="134"/>
       <c r="B16" s="60" t="s">
-        <v>713</v>
+        <v>752</v>
       </c>
       <c r="C16" s="76">
         <v>2</v>
@@ -6359,7 +6493,7 @@
       </c>
       <c r="E16" s="69"/>
       <c r="F16" s="79" t="s">
-        <v>714</v>
+        <v>753</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
@@ -6392,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -6443,10 +6577,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="135" t="s">
-        <v>715</v>
+        <v>754</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>716</v>
+        <v>755</v>
       </c>
       <c r="C2" s="98">
         <v>2</v>
@@ -6454,21 +6588,23 @@
       <c r="D2" s="99"/>
       <c r="E2" s="100"/>
       <c r="F2" s="101" t="s">
-        <v>717</v>
+        <v>756</v>
       </c>
       <c r="G2" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" t="s">
-        <v>718</v>
+      <c r="H2" s="102" t="s">
+        <v>757</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>758</v>
       </c>
       <c r="J2" s="103"/>
     </row>
     <row r="3" spans="1:10" ht="51">
       <c r="A3" s="135"/>
       <c r="B3" s="60" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="C3" s="104">
         <v>2</v>
@@ -6478,19 +6614,21 @@
       </c>
       <c r="E3" s="106"/>
       <c r="F3" s="107" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="G3" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
+      <c r="I3" s="108" t="s">
+        <v>761</v>
+      </c>
       <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="135"/>
       <c r="B4" s="60" t="s">
-        <v>721</v>
+        <v>762</v>
       </c>
       <c r="C4" s="104">
         <v>2</v>
@@ -6500,21 +6638,21 @@
       </c>
       <c r="E4" s="106"/>
       <c r="F4" s="107" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
       <c r="G4" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="108"/>
       <c r="I4" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
       <c r="J4" s="109"/>
     </row>
-    <row r="5" spans="1:10" ht="272.10000000000002">
+    <row r="5" spans="1:10" ht="356.25">
       <c r="A5" s="135"/>
       <c r="B5" s="60" t="s">
-        <v>724</v>
+        <v>765</v>
       </c>
       <c r="C5" s="104">
         <v>2</v>
@@ -6522,21 +6660,23 @@
       <c r="D5" s="105"/>
       <c r="E5" s="106"/>
       <c r="F5" s="107" t="s">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="G5" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="108"/>
+      <c r="H5" s="108" t="s">
+        <v>767</v>
+      </c>
       <c r="I5" s="125" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="J5" s="109"/>
     </row>
     <row r="6" spans="1:10" ht="409.6">
       <c r="A6" s="135"/>
       <c r="B6" s="60" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="C6" s="110">
         <v>3</v>
@@ -6544,23 +6684,23 @@
       <c r="D6" s="105"/>
       <c r="E6" s="106"/>
       <c r="F6" s="107" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="G6" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="108"/>
       <c r="I6" s="125" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="J6" s="109"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
       <c r="A7" s="134" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="C7" s="111">
         <v>1</v>
@@ -6570,21 +6710,21 @@
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="107" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="G7" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="108"/>
       <c r="I7" s="125" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="J7" s="109"/>
     </row>
     <row r="8" spans="1:10" ht="33.950000000000003">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="C8" s="111">
         <v>1</v>
@@ -6594,21 +6734,21 @@
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="107" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="G8" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="108" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="J8" s="109"/>
     </row>
     <row r="9" spans="1:10" ht="51">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="C9" s="111">
         <v>1</v>
@@ -6618,7 +6758,7 @@
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="107" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="G9" s="108" t="s">
         <v>68</v>
@@ -6630,7 +6770,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="C10" s="104">
         <v>2</v>
@@ -6640,7 +6780,7 @@
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="107" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="G10" s="108" t="s">
         <v>68</v>
@@ -6652,7 +6792,7 @@
     <row r="11" spans="1:10" ht="153">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="C11" s="104">
         <v>2</v>
@@ -6660,21 +6800,21 @@
       <c r="D11" s="105"/>
       <c r="E11" s="106"/>
       <c r="F11" s="107" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="G11" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="125" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="J11" s="109"/>
     </row>
     <row r="12" spans="1:10" ht="51">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="C12" s="104">
         <v>2</v>
@@ -6684,23 +6824,23 @@
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="107" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="G12" s="108" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="108"/>
       <c r="I12" s="108" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="J12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="A13" s="134" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="C13" s="111">
         <v>1</v>
@@ -6710,7 +6850,7 @@
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="107" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="G13" s="108" t="s">
         <v>68</v>
@@ -6722,7 +6862,7 @@
     <row r="14" spans="1:10" ht="33.950000000000003">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="C14" s="111">
         <v>1</v>
@@ -6732,7 +6872,7 @@
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="107" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="G14" s="108"/>
       <c r="H14" s="108"/>
@@ -6742,7 +6882,7 @@
     <row r="15" spans="1:10" ht="33.950000000000003">
       <c r="A15" s="134"/>
       <c r="B15" s="60" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="C15" s="111">
         <v>1</v>
@@ -6752,7 +6892,7 @@
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="107" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="G15" s="108"/>
       <c r="H15" s="108"/>
@@ -6761,10 +6901,10 @@
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
       <c r="A16" s="134" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="C16" s="111">
         <v>1</v>
@@ -6774,7 +6914,7 @@
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="107" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="108"/>
@@ -6784,7 +6924,7 @@
     <row r="17" spans="1:10" ht="33.950000000000003">
       <c r="A17" s="134"/>
       <c r="B17" s="60" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="C17" s="111">
         <v>1</v>
@@ -6794,7 +6934,7 @@
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="107" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="G17" s="108"/>
       <c r="H17" s="108"/>
@@ -6804,7 +6944,7 @@
     <row r="18" spans="1:10" ht="33.950000000000003">
       <c r="A18" s="134"/>
       <c r="B18" s="60" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="C18" s="111">
         <v>1</v>
@@ -6814,7 +6954,7 @@
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="107" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
@@ -6824,7 +6964,7 @@
     <row r="19" spans="1:10" ht="17.100000000000001">
       <c r="A19" s="134"/>
       <c r="B19" s="60" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="C19" s="111">
         <v>1</v>
@@ -6834,7 +6974,7 @@
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="107" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="G19" s="108"/>
       <c r="H19" s="108"/>
@@ -6844,7 +6984,7 @@
     <row r="20" spans="1:10" ht="33.950000000000003">
       <c r="A20" s="134"/>
       <c r="B20" s="60" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="C20" s="111">
         <v>1</v>
@@ -6854,7 +6994,7 @@
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="107" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="G20" s="108"/>
       <c r="H20" s="108"/>
@@ -6864,7 +7004,7 @@
     <row r="21" spans="1:10" ht="33.950000000000003">
       <c r="A21" s="134"/>
       <c r="B21" s="60" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="C21" s="111">
         <v>1</v>
@@ -6874,7 +7014,7 @@
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="107" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="G21" s="108"/>
       <c r="H21" s="108"/>
@@ -6884,7 +7024,7 @@
     <row r="22" spans="1:10" ht="51">
       <c r="A22" s="134"/>
       <c r="B22" s="60" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="C22" s="111">
         <v>1</v>
@@ -6894,7 +7034,7 @@
       </c>
       <c r="E22" s="106"/>
       <c r="F22" s="107" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="G22" s="108"/>
       <c r="H22" s="108"/>
@@ -6903,10 +7043,10 @@
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
       <c r="A23" s="134" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="B23" s="60" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="C23" s="111">
         <v>1</v>
@@ -6916,7 +7056,7 @@
       </c>
       <c r="E23" s="106"/>
       <c r="F23" s="107" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="G23" s="108"/>
       <c r="H23" s="108"/>
@@ -6926,7 +7066,7 @@
     <row r="24" spans="1:10" ht="33.950000000000003">
       <c r="A24" s="134"/>
       <c r="B24" s="60" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="C24" s="111">
         <v>1</v>
@@ -6936,7 +7076,7 @@
       </c>
       <c r="E24" s="106"/>
       <c r="F24" s="107" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="G24" s="108"/>
       <c r="H24" s="108"/>
@@ -6946,7 +7086,7 @@
     <row r="25" spans="1:10" ht="33.950000000000003">
       <c r="A25" s="134"/>
       <c r="B25" s="60" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="C25" s="111">
         <v>1</v>
@@ -6956,7 +7096,7 @@
       </c>
       <c r="E25" s="106"/>
       <c r="F25" s="107" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="G25" s="108"/>
       <c r="H25" s="108"/>
@@ -6966,7 +7106,7 @@
     <row r="26" spans="1:10" ht="33.950000000000003">
       <c r="A26" s="134"/>
       <c r="B26" s="60" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="C26" s="112">
         <v>2</v>
@@ -6976,7 +7116,7 @@
       </c>
       <c r="E26" s="114"/>
       <c r="F26" s="115" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="G26" s="116"/>
       <c r="H26" s="116"/>
@@ -8092,17 +8232,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8123,18 +8263,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="F26" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="34.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="38"/>
-    <col min="3" max="3" width="14.85546875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="39"/>
-    <col min="5" max="5" width="14.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" style="15" customWidth="1"/>
     <col min="7" max="7" width="13" style="15" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="15" customWidth="1"/>
     <col min="9" max="9" width="67.140625" style="15" customWidth="1"/>
@@ -8142,9 +8282,9 @@
     <col min="11" max="1024" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="43" customFormat="1" ht="23.1" thickBot="1">
-      <c r="A1" s="40" t="s">
-        <v>20</v>
+    <row r="1" spans="1:10" s="43" customFormat="1">
+      <c r="A1" s="136" t="s">
+        <v>157</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>21</v>
@@ -8174,12 +8314,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+    <row r="2" spans="1:10" s="25" customFormat="1" ht="259.5">
       <c r="A2" s="134" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -8188,28 +8328,28 @@
         <v>521</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="25" customFormat="1" ht="120" thickBot="1">
+    <row r="3" spans="1:10" s="25" customFormat="1" ht="146.25">
       <c r="A3" s="134"/>
       <c r="B3" s="44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="50">
         <v>1</v>
@@ -8218,28 +8358,28 @@
         <v>521</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+    <row r="4" spans="1:10" s="25" customFormat="1" ht="48.75">
       <c r="A4" s="134"/>
       <c r="B4" s="44" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" s="50">
         <v>1</v>
@@ -8248,26 +8388,28 @@
         <v>521</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>170</v>
+      </c>
       <c r="I4" s="29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="25" customFormat="1" ht="48.75">
+    <row r="5" spans="1:10" s="25" customFormat="1" ht="64.5">
       <c r="A5" s="134"/>
       <c r="B5" s="44" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C5" s="50">
         <v>1</v>
@@ -8276,26 +8418,28 @@
         <v>521</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="30" t="s">
+        <v>170</v>
+      </c>
       <c r="I5" s="30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="25" customFormat="1" ht="18" thickBot="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="25" customFormat="1" ht="48.75">
       <c r="A6" s="134"/>
       <c r="B6" s="44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C6" s="50">
         <v>1</v>
@@ -8304,24 +8448,28 @@
         <v>620</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>178</v>
+      </c>
       <c r="I6" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
+        <v>179</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="25" customFormat="1" ht="16.5">
       <c r="A7" s="134"/>
       <c r="B7" s="44" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C7" s="50">
         <v>1</v>
@@ -8330,24 +8478,24 @@
         <v>620</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:10" s="25" customFormat="1" ht="170.1">
+    <row r="8" spans="1:10" s="25" customFormat="1" ht="16.5">
       <c r="A8" s="134"/>
       <c r="B8" s="44" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C8" s="50">
         <v>1</v>
@@ -8356,24 +8504,24 @@
         <v>521</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A9" s="134"/>
       <c r="B9" s="44" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C9" s="50">
         <v>1</v>
@@ -8382,24 +8530,24 @@
         <v>521</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
       <c r="A10" s="134"/>
       <c r="B10" s="44" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C10" s="50">
         <v>1</v>
@@ -8408,17 +8556,17 @@
         <v>521</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J10" s="30" t="s">
         <v>49</v>
@@ -8427,7 +8575,7 @@
     <row r="11" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A11" s="134"/>
       <c r="B11" s="44" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C11" s="50">
         <v>1</v>
@@ -8436,17 +8584,17 @@
         <v>263</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>49</v>
@@ -8455,7 +8603,7 @@
     <row r="12" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A12" s="134"/>
       <c r="B12" s="44" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C12" s="50">
         <v>1</v>
@@ -8464,24 +8612,24 @@
         <v>521</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A13" s="134"/>
       <c r="B13" s="44" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C13" s="50">
         <v>1</v>
@@ -8490,26 +8638,26 @@
         <v>521</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" s="25" customFormat="1" ht="135.94999999999999">
+    <row r="14" spans="1:10" s="25" customFormat="1" ht="32.25">
       <c r="A14" s="134" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C14" s="50">
         <v>1</v>
@@ -8518,24 +8666,26 @@
         <v>307</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H14" s="30"/>
+        <v>183</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>202</v>
+      </c>
       <c r="I14" s="30" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" s="25" customFormat="1" ht="141">
+    <row r="15" spans="1:10" s="25" customFormat="1" ht="127.5">
       <c r="A15" s="134"/>
       <c r="B15" s="44" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C15" s="50">
         <v>1</v>
@@ -8544,28 +8694,28 @@
         <v>304</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H15" s="123" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="J15" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="25" customFormat="1" ht="102.95" thickBot="1">
+    <row r="16" spans="1:10" s="25" customFormat="1" ht="32.25">
       <c r="A16" s="134"/>
       <c r="B16" s="44" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C16" s="50">
         <v>1</v>
@@ -8575,23 +8725,25 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="29" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>211</v>
+      </c>
       <c r="I16" s="30" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="J16" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="25" customFormat="1" ht="69" thickBot="1">
+    <row r="17" spans="1:10" s="25" customFormat="1" ht="81">
       <c r="A17" s="134"/>
       <c r="B17" s="44" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C17" s="52">
         <v>3</v>
@@ -8600,17 +8752,19 @@
         <v>308</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>216</v>
+      </c>
       <c r="I17" s="30" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="J17" s="30" t="s">
         <v>49</v>
@@ -8619,7 +8773,7 @@
     <row r="18" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A18" s="134"/>
       <c r="B18" s="44" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C18" s="52">
         <v>3</v>
@@ -8628,10 +8782,10 @@
         <v>319</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="G18" s="28" t="s">
         <v>68</v>
@@ -8643,7 +8797,7 @@
     <row r="19" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A19" s="134"/>
       <c r="B19" s="44" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C19" s="52">
         <v>3</v>
@@ -8652,24 +8806,24 @@
         <v>308</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H19" s="30"/>
       <c r="I19" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A20" s="134"/>
       <c r="B20" s="44" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C20" s="52">
         <v>3</v>
@@ -8678,28 +8832,28 @@
         <v>308</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G20" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="J20" s="30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="25" customFormat="1" ht="84.95">
+    <row r="21" spans="1:10" s="25" customFormat="1" ht="113.25">
       <c r="A21" s="134" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C21" s="50">
         <v>1</v>
@@ -8708,17 +8862,17 @@
         <v>330</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F21" s="29" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="G21" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H21" s="30"/>
       <c r="I21" s="30" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="J21" s="30" t="s">
         <v>49</v>
@@ -8727,7 +8881,7 @@
     <row r="22" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A22" s="134"/>
       <c r="B22" s="44" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C22" s="53">
         <v>2</v>
@@ -8736,10 +8890,10 @@
         <v>308</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>68</v>
@@ -8751,7 +8905,7 @@
     <row r="23" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A23" s="134"/>
       <c r="B23" s="44" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C23" s="53">
         <v>2</v>
@@ -8760,10 +8914,10 @@
         <v>287</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="G23" s="28" t="s">
         <v>68</v>
@@ -8774,10 +8928,10 @@
     </row>
     <row r="24" spans="1:10" s="25" customFormat="1" ht="95.25" customHeight="1">
       <c r="A24" s="134" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C24" s="53">
         <v>2</v>
@@ -8786,17 +8940,17 @@
         <v>916</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G24" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H24" s="30"/>
       <c r="I24" s="30" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J24" s="30" t="s">
         <v>49</v>
@@ -8805,7 +8959,7 @@
     <row r="25" spans="1:10" s="25" customFormat="1" ht="84.95">
       <c r="A25" s="134"/>
       <c r="B25" s="44" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C25" s="53">
         <v>2</v>
@@ -8814,17 +8968,17 @@
         <v>916</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="30" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>49</v>
@@ -8833,7 +8987,7 @@
     <row r="26" spans="1:10" s="25" customFormat="1" ht="68.099999999999994">
       <c r="A26" s="134"/>
       <c r="B26" s="44" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="C26" s="53">
         <v>2</v>
@@ -8842,17 +8996,17 @@
         <v>916</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G26" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="30"/>
       <c r="I26" s="30" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J26" s="30" t="s">
         <v>49</v>
@@ -8861,7 +9015,7 @@
     <row r="27" spans="1:10" s="25" customFormat="1" ht="68.099999999999994">
       <c r="A27" s="134"/>
       <c r="B27" s="44" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="C27" s="53">
         <v>2</v>
@@ -8870,24 +9024,24 @@
         <v>916</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="G27" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" s="25" customFormat="1" ht="119.1">
       <c r="A28" s="134"/>
       <c r="B28" s="44" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C28" s="53">
         <v>2</v>
@@ -8896,17 +9050,17 @@
         <v>916</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G28" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J28" s="30" t="s">
         <v>49</v>
@@ -8914,10 +9068,10 @@
     </row>
     <row r="29" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A29" s="134" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C29" s="50">
         <v>1</v>
@@ -8926,10 +9080,10 @@
         <v>640</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" s="29" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G29" s="118"/>
       <c r="H29" s="118"/>
@@ -8939,7 +9093,7 @@
     <row r="30" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A30" s="134"/>
       <c r="B30" s="44" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="C30" s="50">
         <v>1</v>
@@ -8948,24 +9102,24 @@
         <v>640</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="G30" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="28"/>
       <c r="I30" s="28" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A31" s="134"/>
       <c r="B31" s="44" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="C31" s="50">
         <v>1</v>
@@ -8974,24 +9128,24 @@
         <v>640</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H31" s="28"/>
       <c r="I31" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J31" s="32"/>
     </row>
     <row r="32" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A32" s="134"/>
       <c r="B32" s="44" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C32" s="50">
         <v>1</v>
@@ -9000,26 +9154,26 @@
         <v>16</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J32" s="32"/>
     </row>
     <row r="33" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A33" s="134"/>
       <c r="B33" s="44" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C33" s="50">
         <v>1</v>
@@ -9028,24 +9182,24 @@
         <v>304</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="G33" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="28" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J33" s="32"/>
     </row>
     <row r="34" spans="1:10" s="25" customFormat="1" ht="84.95">
       <c r="A34" s="134"/>
       <c r="B34" s="44" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C34" s="50">
         <v>1</v>
@@ -9054,24 +9208,24 @@
         <v>640</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H34" s="28"/>
       <c r="I34" s="30" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J34" s="32"/>
     </row>
     <row r="35" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A35" s="134"/>
       <c r="B35" s="44" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C35" s="53">
         <v>2</v>
@@ -9080,26 +9234,26 @@
         <v>308</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="G35" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J35" s="32"/>
     </row>
     <row r="36" spans="1:10" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A36" s="134" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="C36" s="53">
         <v>2</v>
@@ -9108,24 +9262,24 @@
         <v>308</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H36" s="28"/>
       <c r="I36" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A37" s="134"/>
       <c r="B37" s="44" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="C37" s="53">
         <v>2</v>
@@ -9134,24 +9288,24 @@
         <v>330</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H37" s="28"/>
       <c r="I37" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J37" s="32"/>
     </row>
     <row r="38" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A38" s="134"/>
       <c r="B38" s="44" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C38" s="53">
         <v>2</v>
@@ -9160,26 +9314,26 @@
         <v>310</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H38" s="28"/>
       <c r="I38" s="30" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" s="25" customFormat="1" ht="48" customHeight="1">
       <c r="A39" s="134" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C39" s="50">
         <v>1</v>
@@ -9188,24 +9342,24 @@
         <v>287</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H39" s="28"/>
       <c r="I39" s="30" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" s="25" customFormat="1" ht="33.950000000000003">
       <c r="A40" s="134"/>
       <c r="B40" s="44" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="C40" s="50">
         <v>1</v>
@@ -9214,24 +9368,24 @@
         <v>287</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H40" s="28"/>
       <c r="I40" s="30" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J40" s="32"/>
     </row>
     <row r="41" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A41" s="134"/>
       <c r="B41" s="44" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="C41" s="50">
         <v>1</v>
@@ -9240,24 +9394,24 @@
         <v>287</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H41" s="28"/>
       <c r="I41" s="30" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J41" s="32"/>
     </row>
     <row r="42" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A42" s="134"/>
       <c r="B42" s="44" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C42" s="50">
         <v>1</v>
@@ -9266,24 +9420,24 @@
         <v>523</v>
       </c>
       <c r="E42" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H42" s="28"/>
       <c r="I42" s="30" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J42" s="32"/>
     </row>
     <row r="43" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A43" s="134"/>
       <c r="B43" s="44" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C43" s="53">
         <v>2</v>
@@ -9292,19 +9446,19 @@
         <v>256</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H43" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I43" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J43" s="30" t="s">
         <v>49</v>
@@ -9313,7 +9467,7 @@
     <row r="44" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A44" s="134"/>
       <c r="B44" s="44" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C44" s="53">
         <v>2</v>
@@ -9322,19 +9476,19 @@
         <v>310</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I44" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J44" s="30" t="s">
         <v>49</v>
@@ -9342,10 +9496,10 @@
     </row>
     <row r="45" spans="1:10" s="25" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A45" s="134" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -9354,19 +9508,19 @@
         <v>613</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G45" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I45" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J45" s="30" t="s">
         <v>49</v>
@@ -9375,7 +9529,7 @@
     <row r="46" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A46" s="134"/>
       <c r="B46" s="44" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C46" s="53">
         <v>2</v>
@@ -9384,19 +9538,19 @@
         <v>320</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F46" s="29" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H46" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I46" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J46" s="30" t="s">
         <v>49</v>
@@ -9405,7 +9559,7 @@
     <row r="47" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A47" s="134"/>
       <c r="B47" s="44" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C47" s="53">
         <v>2</v>
@@ -9414,19 +9568,19 @@
         <v>326</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F47" s="29" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I47" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J47" s="30" t="s">
         <v>49</v>
@@ -9435,7 +9589,7 @@
     <row r="48" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A48" s="134"/>
       <c r="B48" s="44" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C48" s="53">
         <v>2</v>
@@ -9444,19 +9598,19 @@
         <v>287</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="F48" s="29" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J48" s="30" t="s">
         <v>49</v>
@@ -9465,7 +9619,7 @@
     <row r="49" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A49" s="134"/>
       <c r="B49" s="44" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C49" s="53">
         <v>2</v>
@@ -9474,19 +9628,19 @@
         <v>287</v>
       </c>
       <c r="E49" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G49" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="I49" s="30" t="s">
         <v>296</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>297</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>282</v>
       </c>
       <c r="J49" s="30" t="s">
         <v>49</v>
@@ -9495,7 +9649,7 @@
     <row r="50" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A50" s="134"/>
       <c r="B50" s="44" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C50" s="53">
         <v>2</v>
@@ -9504,10 +9658,10 @@
         <v>613</v>
       </c>
       <c r="E50" s="27" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="G50" s="28" t="s">
         <v>68</v>
@@ -9519,7 +9673,7 @@
     <row r="51" spans="1:10" s="25" customFormat="1" ht="51">
       <c r="A51" s="134"/>
       <c r="B51" s="44" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C51" s="52">
         <v>3</v>
@@ -9528,10 +9682,10 @@
         <v>308</v>
       </c>
       <c r="E51" s="27" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="G51" s="28" t="s">
         <v>68</v>
@@ -9542,10 +9696,10 @@
     </row>
     <row r="52" spans="1:10" s="25" customFormat="1" ht="63.75" customHeight="1" thickBot="1">
       <c r="A52" s="134" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C52" s="53">
         <v>2</v>
@@ -9554,24 +9708,24 @@
         <v>320</v>
       </c>
       <c r="E52" s="27" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G52" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H52" s="28"/>
       <c r="I52" s="28" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A53" s="134"/>
       <c r="B53" s="44" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C53" s="53">
         <v>2</v>
@@ -9580,24 +9734,24 @@
         <v>330</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H53" s="28"/>
       <c r="I53" s="28" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J53" s="32"/>
     </row>
     <row r="54" spans="1:10" s="25" customFormat="1" ht="35.1" thickBot="1">
       <c r="A54" s="134"/>
       <c r="B54" s="44" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C54" s="53">
         <v>2</v>
@@ -9606,138 +9760,138 @@
         <v>327</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F54" s="29" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H54" s="28"/>
       <c r="I54" s="28" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J54" s="32"/>
     </row>
     <row r="55" spans="1:10" s="25" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
       <c r="A55" s="134" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D55" s="51">
         <v>287</v>
       </c>
       <c r="E55" s="27" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H55" s="28"/>
       <c r="I55" s="28" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J55" s="32"/>
     </row>
     <row r="56" spans="1:10" s="25" customFormat="1" ht="47.45" customHeight="1" thickBot="1">
       <c r="A56" s="134"/>
       <c r="B56" s="44" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D56" s="51">
         <v>255</v>
       </c>
       <c r="E56" s="27" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F56" s="29" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H56" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J56" s="32"/>
     </row>
     <row r="57" spans="1:10" s="25" customFormat="1" ht="51.95" thickBot="1">
       <c r="A57" s="134"/>
       <c r="B57" s="44" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D57" s="51">
         <v>522</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="G57" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H57" s="28"/>
       <c r="I57" s="28" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="J57" s="32"/>
     </row>
     <row r="58" spans="1:10" s="25" customFormat="1" ht="102.95" thickBot="1">
       <c r="A58" s="134"/>
       <c r="B58" s="44" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="C58" s="54" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D58" s="55">
         <v>798</v>
       </c>
       <c r="E58" s="34"/>
       <c r="F58" s="36" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="28" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J58" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -9761,16 +9915,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="F6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="56" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="57" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="57"/>
+    <col min="3" max="3" width="11.85546875" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" style="57" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="70" style="25" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="25" customWidth="1"/>
     <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
@@ -9813,10 +9967,10 @@
     </row>
     <row r="2" spans="1:10" ht="41.25">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -9826,25 +9980,27 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="48" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="49" t="s">
+        <v>341</v>
+      </c>
       <c r="I2" s="49" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
       <c r="A3" s="134" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -9856,25 +10012,25 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>332</v>
+      <c r="H3" s="137" t="s">
+        <v>347</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>348</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>49</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="48.75">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -9886,21 +10042,17 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="63" t="s">
-        <v>49</v>
-      </c>
+      <c r="H4" s="138"/>
     </row>
     <row r="5" spans="1:10" ht="48.75">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -9912,19 +10064,25 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="32"/>
+      <c r="H5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J5" s="63" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="48.75">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -9936,7 +10094,7 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>26</v>
@@ -9949,10 +10107,10 @@
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
       <c r="A7" s="134" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -9964,19 +10122,25 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="63"/>
+        <v>26</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="113.25">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -9988,19 +10152,25 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:10" ht="68.099999999999994">
+    </row>
+    <row r="9" spans="1:10" ht="64.5">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -10010,7 +10180,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="29" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>68</v>
@@ -10022,7 +10192,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -10034,7 +10204,7 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>68</v>
@@ -10045,10 +10215,10 @@
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
       <c r="A11" s="134" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -10057,10 +10227,10 @@
         <v>614</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G11" s="28" t="s">
         <v>68</v>
@@ -10072,7 +10242,7 @@
     <row r="12" spans="1:10" ht="48.75">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -10081,10 +10251,10 @@
         <v>1004</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>68</v>
@@ -10096,7 +10266,7 @@
     <row r="13" spans="1:10" ht="48.75">
       <c r="A13" s="134"/>
       <c r="B13" s="60" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -10105,10 +10275,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>68</v>
@@ -10120,7 +10290,7 @@
     <row r="14" spans="1:10" ht="33.950000000000003">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -10129,10 +10299,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="G14" s="28" t="s">
         <v>68</v>
@@ -10144,7 +10314,7 @@
     <row r="15" spans="1:10" ht="84.95">
       <c r="A15" s="134"/>
       <c r="B15" s="60" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -10153,10 +10323,10 @@
         <v>16</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G15" s="28" t="s">
         <v>68</v>
@@ -10167,10 +10337,10 @@
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
       <c r="A16" s="134" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -10179,10 +10349,10 @@
         <v>290</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="G16" s="28" t="s">
         <v>68</v>
@@ -10194,7 +10364,7 @@
     <row r="17" spans="1:10" ht="33.950000000000003">
       <c r="A17" s="134"/>
       <c r="B17" s="60" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="C17" s="66">
         <v>2</v>
@@ -10204,7 +10374,7 @@
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="29" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="G17" s="28" t="s">
         <v>26</v>
@@ -10216,7 +10386,7 @@
     <row r="18" spans="1:10" ht="51">
       <c r="A18" s="134"/>
       <c r="B18" s="60" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="C18" s="66">
         <v>2</v>
@@ -10226,7 +10396,7 @@
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="29" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -10235,10 +10405,10 @@
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
       <c r="A19" s="134" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C19" s="67">
         <v>3</v>
@@ -10247,10 +10417,10 @@
         <v>613</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>371</v>
+        <v>392</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -10260,7 +10430,7 @@
     <row r="20" spans="1:10" ht="51">
       <c r="A20" s="134"/>
       <c r="B20" s="60" t="s">
-        <v>372</v>
+        <v>393</v>
       </c>
       <c r="C20" s="67">
         <v>3</v>
@@ -10269,10 +10439,10 @@
         <v>613</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>373</v>
+        <v>394</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -10281,10 +10451,10 @@
     </row>
     <row r="21" spans="1:10" ht="51">
       <c r="A21" s="1" t="s">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="B21" s="60" t="s">
-        <v>375</v>
+        <v>396</v>
       </c>
       <c r="C21" s="68">
         <v>1</v>
@@ -10294,7 +10464,7 @@
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="36" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
@@ -10324,6 +10494,9 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="https://github.com/ISEP-1190402/desofs2025_wed_pbs_3/blob/development/LibraryOnlineRentalSystem/Domain/User/AuthService.cs" xr:uid="{C405D991-D2E1-45F9-B5D0-C1CA9D5FA968}"/>
+  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -10337,17 +10510,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="109" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A8" zoomScale="109" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="89.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="5.42578125" style="57" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="36.85546875" style="25" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.140625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="66.85546875" style="25" customWidth="1"/>
@@ -10387,12 +10560,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="81.95" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -10402,23 +10575,25 @@
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="48" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>380</v>
+      <c r="H2" s="122" t="s">
+        <v>401</v>
       </c>
       <c r="I2" s="122" t="s">
-        <v>381</v>
-      </c>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="1:10" ht="35.1" thickBot="1">
+        <v>402</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81">
       <c r="A3" s="134"/>
       <c r="B3" s="75" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -10428,23 +10603,25 @@
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>384</v>
+      <c r="H3" s="122" t="s">
+        <v>406</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="69" thickBot="1">
+        <v>407</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="162">
       <c r="A4" s="134"/>
       <c r="B4" s="75" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -10454,16 +10631,16 @@
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="J4" s="32" t="s">
         <v>78</v>
@@ -10472,7 +10649,7 @@
     <row r="5" spans="1:10" ht="18" thickBot="1">
       <c r="A5" s="134"/>
       <c r="B5" s="75" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -10493,7 +10670,7 @@
     <row r="6" spans="1:10" ht="35.1" thickBot="1">
       <c r="A6" s="134"/>
       <c r="B6" s="75" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -10503,25 +10680,25 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A7" s="134" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -10531,23 +10708,23 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="48.75">
       <c r="A8" s="134"/>
       <c r="B8" s="75" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -10557,25 +10734,25 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="130" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
       <c r="A9" s="134" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -10585,14 +10762,14 @@
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="29" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="130"/>
       <c r="I9" s="28" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="J9" s="32" t="s">
         <v>78</v>
@@ -10601,7 +10778,7 @@
     <row r="10" spans="1:10" ht="48.75">
       <c r="A10" s="134"/>
       <c r="B10" s="75" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -10611,23 +10788,23 @@
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="29" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="G10" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="48.75">
       <c r="A11" s="134"/>
       <c r="B11" s="75" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C11" s="76">
         <v>2</v>
@@ -10637,16 +10814,16 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="36" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="J11" s="37" t="s">
         <v>78</v>
@@ -10683,8 +10860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
-    <sheetView topLeftCell="D17" zoomScale="112" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView topLeftCell="F5" zoomScale="112" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -10732,12 +10909,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="79.5" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="C2" s="61">
         <v>1</v>
@@ -10747,23 +10924,25 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="124" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="I2" s="122" t="s">
-        <v>419</v>
-      </c>
-      <c r="J2" s="63"/>
-    </row>
-    <row r="3" spans="1:10" ht="86.1" thickBot="1">
+        <v>443</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="81">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -10773,17 +10952,23 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="G3" s="22"/>
+        <v>446</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="126"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" ht="86.1" thickBot="1">
+      <c r="I3" s="127" t="s">
+        <v>447</v>
+      </c>
+      <c r="J3" s="63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="64.5">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C4" s="64">
         <v>1</v>
@@ -10793,15 +10978,22 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" ht="102.95" thickBot="1">
+        <v>450</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="113.25">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -10811,23 +11003,23 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
-        <v>331</v>
+      <c r="H5" s="124" t="s">
+        <v>455</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="51.95" thickBot="1">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="C6" s="64">
         <v>1</v>
@@ -10837,7 +11029,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>68</v>
@@ -10848,10 +11040,10 @@
     </row>
     <row r="7" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
       <c r="A7" s="134" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C7" s="64">
         <v>1</v>
@@ -10861,17 +11053,19 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="127"/>
+      <c r="H7" s="127" t="s">
+        <v>461</v>
+      </c>
       <c r="I7" s="127"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="35.1" thickBot="1">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -10881,7 +11075,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="127"/>
@@ -10891,7 +11085,7 @@
     <row r="9" spans="1:10" ht="35.1" thickBot="1">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -10901,7 +11095,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>68</v>
@@ -10913,7 +11107,7 @@
     <row r="10" spans="1:10" ht="51.95" thickBot="1">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -10923,7 +11117,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>68</v>
@@ -10935,7 +11129,7 @@
     <row r="11" spans="1:10" ht="51.95" thickBot="1">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -10945,7 +11139,7 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>68</v>
@@ -10957,7 +11151,7 @@
     <row r="12" spans="1:10" ht="69" thickBot="1">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -10967,7 +11161,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>68</v>
@@ -10979,7 +11173,7 @@
     <row r="13" spans="1:10" ht="51.95" thickBot="1">
       <c r="A13" s="134"/>
       <c r="B13" s="60" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -10989,7 +11183,7 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>68</v>
@@ -11001,7 +11195,7 @@
     <row r="14" spans="1:10" ht="51.95" thickBot="1">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -11011,7 +11205,7 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>68</v>
@@ -11022,10 +11216,10 @@
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1" thickBot="1">
       <c r="A15" s="134" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B15" s="60" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="C15" s="64">
         <v>1</v>
@@ -11035,7 +11229,7 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>68</v>
@@ -11047,7 +11241,7 @@
     <row r="16" spans="1:10" ht="69" thickBot="1">
       <c r="A16" s="134"/>
       <c r="B16" s="60" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="C16" s="64">
         <v>1</v>
@@ -11057,7 +11251,7 @@
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="78" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>68</v>
@@ -11069,7 +11263,7 @@
     <row r="17" spans="1:10" ht="69" thickBot="1">
       <c r="A17" s="134"/>
       <c r="B17" s="60" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="C17" s="64">
         <v>1</v>
@@ -11079,7 +11273,7 @@
       </c>
       <c r="E17" s="65"/>
       <c r="F17" s="78" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="127"/>
@@ -11089,7 +11283,7 @@
     <row r="18" spans="1:10" ht="137.1" thickBot="1">
       <c r="A18" s="134"/>
       <c r="B18" s="60" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="C18" s="64">
         <v>1</v>
@@ -11099,25 +11293,25 @@
       </c>
       <c r="E18" s="65"/>
       <c r="F18" s="78" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="G18" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="J18" s="32" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="86.1" thickBot="1">
       <c r="A19" s="134"/>
       <c r="B19" s="60" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="C19" s="64">
         <v>1</v>
@@ -11127,23 +11321,23 @@
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="78" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="G19" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="126"/>
       <c r="I19" s="127" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="69" thickBot="1">
       <c r="A20" s="134"/>
       <c r="B20" s="60" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C20" s="64">
         <v>1</v>
@@ -11153,21 +11347,21 @@
       </c>
       <c r="E20" s="65"/>
       <c r="F20" s="78" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H20" s="127"/>
       <c r="I20" s="127" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" ht="69" thickBot="1">
       <c r="A21" s="134"/>
       <c r="B21" s="60" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="C21" s="64">
         <v>1</v>
@@ -11177,7 +11371,7 @@
       </c>
       <c r="E21" s="65"/>
       <c r="F21" s="78" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>68</v>
@@ -11189,7 +11383,7 @@
     <row r="22" spans="1:10" ht="86.1" thickBot="1">
       <c r="A22" s="134"/>
       <c r="B22" s="60" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="C22" s="64">
         <v>1</v>
@@ -11199,7 +11393,7 @@
       </c>
       <c r="E22" s="65"/>
       <c r="F22" s="78" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="G22" s="22" t="s">
         <v>68</v>
@@ -11211,7 +11405,7 @@
     <row r="23" spans="1:10" ht="35.1" thickBot="1">
       <c r="A23" s="134"/>
       <c r="B23" s="60" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C23" s="64">
         <v>1</v>
@@ -11221,7 +11415,7 @@
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="78" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="G23" s="22" t="s">
         <v>68</v>
@@ -11233,7 +11427,7 @@
     <row r="24" spans="1:10" ht="51.95" thickBot="1">
       <c r="A24" s="134"/>
       <c r="B24" s="60" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="C24" s="64">
         <v>1</v>
@@ -11243,7 +11437,7 @@
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="78" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="G24" s="22" t="s">
         <v>68</v>
@@ -11254,10 +11448,10 @@
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1" thickBot="1">
       <c r="A25" s="134" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="C25" s="66">
         <v>2</v>
@@ -11267,7 +11461,7 @@
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="78" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>26</v>
@@ -11279,7 +11473,7 @@
     <row r="26" spans="1:10" ht="35.1" thickBot="1">
       <c r="A26" s="134"/>
       <c r="B26" s="60" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="C26" s="66">
         <v>2</v>
@@ -11289,21 +11483,21 @@
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="78" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="127"/>
       <c r="I26" s="127" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="J26" s="32"/>
     </row>
     <row r="27" spans="1:10" ht="35.1" thickBot="1">
       <c r="A27" s="134"/>
       <c r="B27" s="60" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="C27" s="66">
         <v>2</v>
@@ -11313,7 +11507,7 @@
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="78" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>68</v>
@@ -11324,10 +11518,10 @@
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1" thickBot="1">
       <c r="A28" s="134" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="B28" s="60" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="C28" s="64">
         <v>1</v>
@@ -11337,21 +11531,21 @@
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="78" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="G28" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="127"/>
       <c r="I28" s="127" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" ht="69" thickBot="1">
       <c r="A29" s="134"/>
       <c r="B29" s="60" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="C29" s="64">
         <v>1</v>
@@ -11361,7 +11555,7 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="78" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="G29" s="22" t="s">
         <v>68</v>
@@ -11373,7 +11567,7 @@
     <row r="30" spans="1:10" ht="51.95" thickBot="1">
       <c r="A30" s="134"/>
       <c r="B30" s="60" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C30" s="64">
         <v>1</v>
@@ -11383,21 +11577,21 @@
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="78" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="G30" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="127"/>
       <c r="I30" s="127" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="J30" s="32"/>
     </row>
     <row r="31" spans="1:10" ht="51.95" thickBot="1">
       <c r="A31" s="134"/>
       <c r="B31" s="60" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="C31" s="68">
         <v>1</v>
@@ -11407,7 +11601,7 @@
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="79" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="G31" s="128" t="s">
         <v>68</v>
@@ -11448,7 +11642,7 @@
     <col min="3" max="3" width="12.42578125" style="57" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="57"/>
     <col min="6" max="6" width="97.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
     <col min="8" max="8" width="36.140625" style="25" customWidth="1"/>
     <col min="9" max="9" width="18" style="25" customWidth="1"/>
     <col min="10" max="10" width="27.28515625" style="25" customWidth="1"/>
@@ -11489,10 +11683,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="C2" s="80">
         <v>2</v>
@@ -11502,9 +11696,11 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>487</v>
-      </c>
-      <c r="G2" s="49"/>
+        <v>518</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="H2" s="49"/>
       <c r="I2" s="49"/>
       <c r="J2" s="63"/>
@@ -11512,7 +11708,7 @@
     <row r="3" spans="1:10" ht="33.950000000000003">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -11522,9 +11718,11 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>489</v>
-      </c>
-      <c r="G3" s="28"/>
+        <v>520</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
       <c r="J3" s="32"/>
@@ -11532,7 +11730,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -11542,19 +11740,21 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>490</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>521</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>68</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="32.25" customHeight="1">
       <c r="A5" s="134" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="B5" s="60" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="C5" s="64">
         <v>1</v>
@@ -11564,7 +11764,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -11574,7 +11774,7 @@
     <row r="6" spans="1:10" ht="51">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -11584,7 +11784,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -11594,7 +11794,7 @@
     <row r="7" spans="1:10" ht="33.950000000000003">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -11604,7 +11804,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -11614,7 +11814,7 @@
     <row r="8" spans="1:10" ht="51">
       <c r="A8" s="134"/>
       <c r="B8" s="60" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -11624,7 +11824,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -11634,7 +11834,7 @@
     <row r="9" spans="1:10" ht="51">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -11644,7 +11844,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -11654,7 +11854,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -11664,7 +11864,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -11674,7 +11874,7 @@
     <row r="11" spans="1:10" ht="33.950000000000003">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="C11" s="67">
         <v>3</v>
@@ -11684,7 +11884,7 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -11694,7 +11894,7 @@
     <row r="12" spans="1:10" ht="33.950000000000003">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="C12" s="67">
         <v>3</v>
@@ -11704,7 +11904,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -11713,10 +11913,10 @@
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
       <c r="A13" s="134" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="B13" s="60" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="C13" s="66">
         <v>2</v>
@@ -11726,7 +11926,7 @@
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="78" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -11736,7 +11936,7 @@
     <row r="14" spans="1:10" ht="51">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="C14" s="66">
         <v>2</v>
@@ -11746,7 +11946,7 @@
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="78" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -11756,7 +11956,7 @@
     <row r="15" spans="1:10" ht="33.950000000000003">
       <c r="A15" s="134"/>
       <c r="B15" s="60" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="C15" s="67">
         <v>3</v>
@@ -11766,7 +11966,7 @@
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="78" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -11775,10 +11975,10 @@
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
       <c r="A16" s="134" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -11788,7 +11988,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="78" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -11798,7 +11998,7 @@
     <row r="17" spans="1:10" ht="33.950000000000003">
       <c r="A17" s="134"/>
       <c r="B17" s="60" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="C17" s="76">
         <v>2</v>
@@ -11808,7 +12008,7 @@
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="79" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
@@ -11841,17 +12041,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A11" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31.42578125" style="70" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="25" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="57" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="57"/>
-    <col min="6" max="6" width="80.28515625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="57" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="0" style="57" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="25" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="25" customWidth="1"/>
     <col min="8" max="8" width="31" style="25" customWidth="1"/>
     <col min="9" max="9" width="24" style="25" customWidth="1"/>
@@ -11893,10 +12093,10 @@
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C2" s="86">
         <v>1</v>
@@ -11906,17 +12106,21 @@
       </c>
       <c r="E2" s="88"/>
       <c r="F2" s="89" t="s">
-        <v>521</v>
-      </c>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
+        <v>552</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>553</v>
+      </c>
       <c r="I2" s="90"/>
       <c r="J2" s="91"/>
     </row>
     <row r="3" spans="1:10" ht="51">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="C3" s="64">
         <v>1</v>
@@ -11926,17 +12130,23 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>522</v>
-      </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+        <v>554</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>555</v>
+      </c>
       <c r="I3" s="28"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="32" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="51">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -11946,17 +12156,21 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>524</v>
-      </c>
-      <c r="G4" s="28"/>
+        <v>557</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="I4" s="28" t="s">
+        <v>558</v>
+      </c>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" ht="51">
+    <row r="5" spans="1:10" ht="96.75">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -11966,19 +12180,25 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>526</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+        <v>560</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>562</v>
+      </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
       <c r="A6" s="134" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="C6" s="66">
         <v>2</v>
@@ -11988,17 +12208,23 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>528</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+        <v>564</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>566</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="33.950000000000003">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="C7" s="66">
         <v>2</v>
@@ -12008,7 +12234,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -12017,10 +12243,10 @@
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
       <c r="A8" s="134" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="C8" s="66">
         <v>2</v>
@@ -12030,7 +12256,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -12040,7 +12266,7 @@
     <row r="9" spans="1:10" ht="17.100000000000001">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="C9" s="66">
         <v>2</v>
@@ -12050,7 +12276,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>68</v>
@@ -12062,7 +12288,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="C10" s="66">
         <v>2</v>
@@ -12072,7 +12298,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>537</v>
+        <v>575</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -12082,7 +12308,7 @@
     <row r="11" spans="1:10" ht="51">
       <c r="A11" s="134"/>
       <c r="B11" s="60" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="C11" s="66">
         <v>2</v>
@@ -12090,7 +12316,7 @@
       <c r="D11" s="27"/>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>539</v>
+        <v>577</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12099,10 +12325,10 @@
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
       <c r="A12" s="134" t="s">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="B12" s="60" t="s">
-        <v>541</v>
+        <v>579</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -12112,7 +12338,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -12122,7 +12348,7 @@
     <row r="13" spans="1:10" ht="51">
       <c r="A13" s="134"/>
       <c r="B13" s="60" t="s">
-        <v>543</v>
+        <v>581</v>
       </c>
       <c r="C13" s="66">
         <v>2</v>
@@ -12132,7 +12358,7 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12142,7 +12368,7 @@
     <row r="14" spans="1:10" ht="33.950000000000003">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="C14" s="76">
         <v>2</v>
@@ -12152,7 +12378,7 @@
       </c>
       <c r="E14" s="69"/>
       <c r="F14" s="79" t="s">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
@@ -12236,10 +12462,10 @@
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
       <c r="A2" s="134" t="s">
-        <v>547</v>
+        <v>585</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="C2" s="80">
         <v>2</v>
@@ -12249,7 +12475,7 @@
       </c>
       <c r="E2" s="62"/>
       <c r="F2" s="77" t="s">
-        <v>549</v>
+        <v>587</v>
       </c>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
@@ -12259,7 +12485,7 @@
     <row r="3" spans="1:10" ht="33.950000000000003">
       <c r="A3" s="134"/>
       <c r="B3" s="60" t="s">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="C3" s="66">
         <v>2</v>
@@ -12269,7 +12495,7 @@
       </c>
       <c r="E3" s="65"/>
       <c r="F3" s="78" t="s">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -12279,7 +12505,7 @@
     <row r="4" spans="1:10" ht="33.950000000000003">
       <c r="A4" s="134"/>
       <c r="B4" s="60" t="s">
-        <v>552</v>
+        <v>590</v>
       </c>
       <c r="C4" s="66">
         <v>2</v>
@@ -12289,7 +12515,7 @@
       </c>
       <c r="E4" s="65"/>
       <c r="F4" s="78" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="G4" s="28"/>
       <c r="H4" s="28"/>
@@ -12299,7 +12525,7 @@
     <row r="5" spans="1:10" ht="33.950000000000003">
       <c r="A5" s="134"/>
       <c r="B5" s="60" t="s">
-        <v>554</v>
+        <v>592</v>
       </c>
       <c r="C5" s="66">
         <v>2</v>
@@ -12309,7 +12535,7 @@
       </c>
       <c r="E5" s="65"/>
       <c r="F5" s="78" t="s">
-        <v>555</v>
+        <v>593</v>
       </c>
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
@@ -12319,7 +12545,7 @@
     <row r="6" spans="1:10" ht="17.100000000000001">
       <c r="A6" s="134"/>
       <c r="B6" s="60" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="C6" s="67">
         <v>3</v>
@@ -12329,7 +12555,7 @@
       </c>
       <c r="E6" s="65"/>
       <c r="F6" s="78" t="s">
-        <v>557</v>
+        <v>595</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -12339,7 +12565,7 @@
     <row r="7" spans="1:10" ht="17.100000000000001">
       <c r="A7" s="134"/>
       <c r="B7" s="60" t="s">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="C7" s="67">
         <v>3</v>
@@ -12349,7 +12575,7 @@
       </c>
       <c r="E7" s="65"/>
       <c r="F7" s="78" t="s">
-        <v>559</v>
+        <v>597</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -12358,10 +12584,10 @@
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
       <c r="A8" s="134" t="s">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="C8" s="64">
         <v>1</v>
@@ -12371,7 +12597,7 @@
       </c>
       <c r="E8" s="65"/>
       <c r="F8" s="78" t="s">
-        <v>562</v>
+        <v>600</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -12381,7 +12607,7 @@
     <row r="9" spans="1:10" ht="33.950000000000003">
       <c r="A9" s="134"/>
       <c r="B9" s="60" t="s">
-        <v>563</v>
+        <v>601</v>
       </c>
       <c r="C9" s="64">
         <v>1</v>
@@ -12391,7 +12617,7 @@
       </c>
       <c r="E9" s="65"/>
       <c r="F9" s="78" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -12401,7 +12627,7 @@
     <row r="10" spans="1:10" ht="33.950000000000003">
       <c r="A10" s="134"/>
       <c r="B10" s="60" t="s">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="C10" s="64">
         <v>1</v>
@@ -12411,7 +12637,7 @@
       </c>
       <c r="E10" s="65"/>
       <c r="F10" s="78" t="s">
-        <v>566</v>
+        <v>604</v>
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
@@ -12420,10 +12646,10 @@
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
       <c r="A11" s="134" t="s">
-        <v>567</v>
+        <v>605</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="C11" s="64">
         <v>1</v>
@@ -12433,7 +12659,7 @@
       </c>
       <c r="E11" s="65"/>
       <c r="F11" s="78" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
@@ -12443,7 +12669,7 @@
     <row r="12" spans="1:10" ht="17.100000000000001">
       <c r="A12" s="134"/>
       <c r="B12" s="60" t="s">
-        <v>570</v>
+        <v>608</v>
       </c>
       <c r="C12" s="64">
         <v>1</v>
@@ -12453,7 +12679,7 @@
       </c>
       <c r="E12" s="65"/>
       <c r="F12" s="78" t="s">
-        <v>571</v>
+        <v>609</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -12463,7 +12689,7 @@
     <row r="13" spans="1:10" ht="33.950000000000003">
       <c r="A13" s="134"/>
       <c r="B13" s="60" t="s">
-        <v>572</v>
+        <v>610</v>
       </c>
       <c r="C13" s="64">
         <v>1</v>
@@ -12473,7 +12699,7 @@
       </c>
       <c r="E13" s="65"/>
       <c r="F13" s="78" t="s">
-        <v>573</v>
+        <v>611</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -12483,7 +12709,7 @@
     <row r="14" spans="1:10" ht="51">
       <c r="A14" s="134"/>
       <c r="B14" s="60" t="s">
-        <v>574</v>
+        <v>612</v>
       </c>
       <c r="C14" s="64">
         <v>1</v>
@@ -12493,7 +12719,7 @@
       </c>
       <c r="E14" s="65"/>
       <c r="F14" s="78" t="s">
-        <v>575</v>
+        <v>613</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -12503,7 +12729,7 @@
     <row r="15" spans="1:10" ht="33.950000000000003">
       <c r="A15" s="134"/>
       <c r="B15" s="60" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="C15" s="66">
         <v>2</v>
@@ -12513,7 +12739,7 @@
       </c>
       <c r="E15" s="65"/>
       <c r="F15" s="78" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -12523,7 +12749,7 @@
     <row r="16" spans="1:10" ht="33.950000000000003">
       <c r="A16" s="134"/>
       <c r="B16" s="60" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
       <c r="C16" s="66">
         <v>2</v>
@@ -12533,7 +12759,7 @@
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="78" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -12543,7 +12769,7 @@
     <row r="17" spans="1:10" ht="51">
       <c r="A17" s="134"/>
       <c r="B17" s="60" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="C17" s="66">
         <v>2</v>
@@ -12553,7 +12779,7 @@
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="78" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
@@ -12563,7 +12789,7 @@
     <row r="18" spans="1:10" ht="33.950000000000003">
       <c r="A18" s="134"/>
       <c r="B18" s="60" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="C18" s="76">
         <v>2</v>
@@ -12573,7 +12799,7 @@
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="79" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
@@ -12602,17 +12828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90bcf6f3-4250-417e-bd88-2ecdd892e909">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="500808a4-e2de-4ccf-b5b9-6d186d6ae505" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F6AA4658011B74591FD4537C57177C5" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e9d90f74af8415ce00796f832b462c6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="90bcf6f3-4250-417e-bd88-2ecdd892e909" xmlns:ns3="500808a4-e2de-4ccf-b5b9-6d186d6ae505" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b545ca1865a2841d1de84aecc182420" ns2:_="" ns3:_="">
     <xsd:import namespace="90bcf6f3-4250-417e-bd88-2ecdd892e909"/>
@@ -12813,6 +13028,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="90bcf6f3-4250-417e-bd88-2ecdd892e909">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="500808a4-e2de-4ccf-b5b9-6d186d6ae505" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -12823,11 +13049,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FF1B17-6304-4217-99CF-B676BF972E4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABF665C-CF79-458C-9E7A-891EA3DBD100}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABF665C-CF79-458C-9E7A-891EA3DBD100}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FF1B17-6304-4217-99CF-B676BF972E4A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
